--- a/analysis_scripts_iclamp/shrn2.xlsx
+++ b/analysis_scripts_iclamp/shrn2.xlsx
@@ -13,18 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="30">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>2023_07_06_01_0003.abf</t>
-  </si>
-  <si>
-    <t>2023_07_06_01_0004.abf</t>
-  </si>
-  <si>
-    <t>2023_07_06_01_0005.abf</t>
+    <t>2025_01_31_03_0004.abf</t>
   </si>
   <si>
     <t>Average</t>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Sweep_25</t>
+  </si>
+  <si>
+    <t>2024_09_27_01_0007.abf</t>
+  </si>
+  <si>
+    <t>2025_01_30_02_0007.abf</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="true"/>
+    <col min="1" max="1" width="10.140625" customWidth="true"/>
     <col min="2" max="2" width="9.140625" customWidth="true"/>
     <col min="3" max="3" width="9.140625" customWidth="true"/>
     <col min="4" max="4" width="9.140625" customWidth="true"/>
@@ -187,84 +187,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -282,69 +282,69 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J2" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K2" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L2" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M2" s="0">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N2" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O2" s="0">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="P2" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R2" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S2" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T2" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U2" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V2" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W2" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X2" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -359,7 +359,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -368,218 +368,218 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M3" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N3" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O3" s="0">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P3" s="0">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="0">
+        <v>24</v>
+      </c>
+      <c r="R3" s="0">
+        <v>24</v>
+      </c>
+      <c r="S3" s="0">
+        <v>25</v>
+      </c>
+      <c r="T3" s="0">
+        <v>25</v>
+      </c>
+      <c r="U3" s="0">
+        <v>25</v>
+      </c>
+      <c r="V3" s="0">
         <v>10</v>
       </c>
-      <c r="R3" s="0">
-        <v>11</v>
-      </c>
-      <c r="S3" s="0">
-        <v>11</v>
-      </c>
-      <c r="T3" s="0">
-        <v>13</v>
-      </c>
-      <c r="U3" s="0">
-        <v>13</v>
-      </c>
-      <c r="V3" s="0">
-        <v>14</v>
-      </c>
       <c r="W3" s="0">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="X3" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="0">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="0">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
       <c r="H4" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K4" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M4" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N4" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O4" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P4" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R4" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S4" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T4" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U4" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="V4" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W4" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X4" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0</v>
-      </c>
       <c r="H5" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J5" s="0">
-        <v>0.66666666666666663</v>
+        <v>9</v>
       </c>
       <c r="K5" s="0">
-        <v>1.3333333333333333</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="L5" s="0">
-        <v>5</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="M5" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N5" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O5" s="0">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P5" s="0">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="R5" s="0">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="S5" s="0">
+        <v>15</v>
+      </c>
+      <c r="T5" s="0">
+        <v>15</v>
+      </c>
+      <c r="U5" s="0">
+        <v>15</v>
+      </c>
+      <c r="V5" s="0">
+        <v>10</v>
+      </c>
+      <c r="W5" s="0">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="X5" s="0">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Z5" s="0">
         <v>8</v>
-      </c>
-      <c r="P5" s="0">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>10</v>
-      </c>
-      <c r="R5" s="0">
-        <v>11</v>
-      </c>
-      <c r="S5" s="0">
-        <v>11.333333333333334</v>
-      </c>
-      <c r="T5" s="0">
-        <v>12.333333333333334</v>
-      </c>
-      <c r="U5" s="0">
-        <v>13</v>
-      </c>
-      <c r="V5" s="0">
-        <v>14</v>
-      </c>
-      <c r="W5" s="0">
-        <v>14.666666666666666</v>
-      </c>
-      <c r="X5" s="0">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="0">
-        <v>15.666666666666666</v>
-      </c>
-      <c r="Z5" s="0">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
